--- a/Assets/Scripts/System/Interaction/Dialog/Tutorial/TutorialDB.xlsx
+++ b/Assets/Scripts/System/Interaction/Dialog/Tutorial/TutorialDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/szun8/Documents/Develop/dragon-and-test/Assets/Scripts/System/Interaction/Dialog/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c\Desktop\sieun\Develop\dragon-and-test\Assets\Scripts\System\Interaction\Dialog\Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B933F9B3-5C5A-CF41-A413-5EFC826C2E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3EF50F-72A1-4453-818A-583DF8FA8E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{62D67DF9-C02E-4B4B-9D5F-1B428BA22005}"/>
+    <workbookView xWindow="14055" yWindow="0" windowWidth="9360" windowHeight="15585" xr2:uid="{62D67DF9-C02E-4B4B-9D5F-1B428BA22005}"/>
   </bookViews>
   <sheets>
     <sheet name="TutorialEntity" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>eventOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -64,11 +60,6 @@
   </si>
   <si>
     <t>지금부터 전투에 대해 알려주도록 할게.</t>
-  </si>
-  <si>
-    <t>소환된 매를 공격하기 위해서는 매를 맞춰야 해.
-매를 처치해봐.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>매도 공격을 해.
@@ -93,11 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>배운 것들로 몬스터들과 전투를 해볼까?
-몬스터를 소환할 테니 몬스터를 모두 처치해.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>너 모든 몬스터를 처치했구나!
 이제는 스킬을 사용하는 방법에 대해 설명해 줄게.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +153,268 @@
   </si>
   <si>
     <t>용과 시험에 합격하길 바라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>것들로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>몬스터들과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전투를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해볼까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터를 소환할테니 몬스터를 모두 처치해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소환된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위해서는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맞춰야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매에게 공격해봐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +422,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -201,12 +449,32 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Apple SD Gothic Neo Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Apple SD Gothic Neo Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Apple SD Gothic Neo Regular"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -238,7 +506,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -258,6 +526,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -594,18 +868,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2825EA14-B14C-3842-BF84-4D0E376FD83F}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="61.42578125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="11.5703125" style="3"/>
+    <col min="1" max="1" width="12.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="61.44140625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="27" customHeight="1">
@@ -613,43 +887,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="40">
+    </row>
+    <row r="2" spans="1:3" ht="36">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -657,241 +931,252 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="40.5">
       <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="40">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="36">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="54">
       <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="54">
       <c r="A9" s="3">
         <v>1</v>
       </c>
       <c r="B9" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="36">
       <c r="A10" s="3">
         <v>2</v>
       </c>
       <c r="B10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20.25">
       <c r="A11" s="3">
         <v>1</v>
       </c>
       <c r="B11" s="3">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="40">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20.25">
       <c r="A12" s="3">
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>5</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="40">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="36">
       <c r="A13" s="3">
         <v>2</v>
       </c>
       <c r="B13" s="3">
-        <v>5</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="40">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="36">
       <c r="A14" s="3">
         <v>3</v>
       </c>
       <c r="B14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="36">
       <c r="A15" s="3">
         <v>4</v>
       </c>
       <c r="B15" s="3">
-        <v>5</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60">
+        <v>4</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="54">
       <c r="A16" s="3">
         <v>5</v>
       </c>
       <c r="B16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="54">
       <c r="A17" s="3">
         <v>6</v>
       </c>
       <c r="B17" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="36">
       <c r="A18" s="3">
         <v>7</v>
       </c>
       <c r="B18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="72">
       <c r="A19" s="3">
         <v>8</v>
       </c>
       <c r="B19" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="36">
       <c r="A20" s="3">
         <v>1</v>
       </c>
       <c r="B20" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="3">
         <v>2</v>
       </c>
       <c r="B21" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="3">
         <v>3</v>
       </c>
       <c r="B22" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="3">
         <v>4</v>
       </c>
       <c r="B23" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="3">
         <v>5</v>
       </c>
       <c r="B24" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="40">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="3">
         <v>6</v>
       </c>
       <c r="B25" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="36">
       <c r="A26" s="3">
         <v>7</v>
       </c>
       <c r="B26" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
+        <v>8</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
